--- a/data/trans_camb/P1417-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P1417-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>0.3231581979203455</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.3813426327402192</v>
+        <v>0.3813426327402194</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>2.918244609814999</v>
@@ -655,7 +655,7 @@
         <v>2.391057291228265</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>3.87771160204257</v>
+        <v>3.877711602042572</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>1.47751330366518</v>
@@ -664,7 +664,7 @@
         <v>1.346869943505798</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>2.120217179706526</v>
+        <v>2.120217179706527</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.647256591228345</v>
+        <v>-1.768430520878484</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.411472502379366</v>
+        <v>-1.392327344443649</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.762291381750681</v>
+        <v>-1.550028938186059</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.9684465429845563</v>
+        <v>1.032969099828052</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4801795009559698</v>
+        <v>0.5875777195142189</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.061413922066402</v>
+        <v>2.030155685261652</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1491910150601391</v>
+        <v>0.2037425304318475</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.06974115203110728</v>
+        <v>0.171065125735508</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.9589409619825956</v>
+        <v>0.830176611552688</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.358244303387364</v>
+        <v>1.331559194038592</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.90404500458125</v>
+        <v>1.959868128239849</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.468663376077487</v>
+        <v>1.457649878070046</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.230361108742256</v>
+        <v>5.793320190995066</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>5.396907563830937</v>
+        <v>4.95115474835449</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.40434676462402</v>
+        <v>7.464734300407998</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.047475051493696</v>
+        <v>3.030090617491972</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.845718787574183</v>
+        <v>2.933968389185867</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.815960280530452</v>
+        <v>3.846813925098967</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.5478704920720905</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.6465142372744266</v>
+        <v>0.6465142372744269</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>7.092701510584396</v>
@@ -760,7 +760,7 @@
         <v>5.811389355213667</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>9.424655782765772</v>
+        <v>9.424655782765775</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>2.939286645880715</v>
@@ -769,7 +769,7 @@
         <v>2.679391670358739</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>4.217847668253877</v>
+        <v>4.217847668253879</v>
       </c>
     </row>
     <row r="8">
@@ -786,13 +786,13 @@
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="n">
-        <v>-0.5276896068869041</v>
+        <v>-0.479924682932567</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3965850108524703</v>
+        <v>-0.5141508118285704</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.03124952995935755</v>
+        <v>0.2001520285493106</v>
       </c>
     </row>
     <row r="9">
@@ -830,7 +830,7 @@
         <v>0.4700900585059177</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.4104062873853375</v>
+        <v>0.4104062873853374</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-0.1905840151535082</v>
@@ -859,31 +859,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.773401386426161</v>
+        <v>-1.785079328851434</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.6315962126230555</v>
+        <v>-0.6414970438257094</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.7536190971841579</v>
+        <v>-0.7222577151038171</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.842040132751712</v>
+        <v>-2.047271323697609</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.854724069711181</v>
+        <v>-2.977842411644665</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.2600709914303526</v>
+        <v>-0.4752070505359508</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.232913386986607</v>
+        <v>-1.181518193628158</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.365549488114842</v>
+        <v>-1.432837884788707</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.04849936653311519</v>
+        <v>0.01799425138120521</v>
       </c>
     </row>
     <row r="12">
@@ -897,28 +897,28 @@
         <v>0</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.638285089664165</v>
+        <v>1.470801074305878</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.228712090023524</v>
+        <v>1.356835508947803</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.805842513811079</v>
+        <v>1.432952628337948</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.109545465960563</v>
+        <v>0.08079171088023147</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.449648394865303</v>
+        <v>3.41202877054649</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.6596239241803641</v>
+        <v>0.6266961819838486</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4177078493735606</v>
+        <v>0.3732860745937613</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.062788931428616</v>
+        <v>2.164816774181146</v>
       </c>
     </row>
     <row r="13">
@@ -935,7 +935,7 @@
         <v>1.323662513632842</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>1.155607118554625</v>
+        <v>1.155607118554624</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.0880265756060543</v>
@@ -953,7 +953,7 @@
         <v>-0.3510088033194707</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.8004397354490203</v>
+        <v>0.8004397354490197</v>
       </c>
     </row>
     <row r="14">
@@ -967,22 +967,22 @@
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="n">
-        <v>-0.6192069612502096</v>
+        <v>-0.6580039709252844</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.9037495356265216</v>
+        <v>-0.9204041983477456</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1216354728286355</v>
+        <v>-0.1710034761547777</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.712246767905453</v>
+        <v>-0.6648796620007248</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.7553711768340249</v>
+        <v>-0.757975970951585</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.04878006205939214</v>
+        <v>-0.0265362049747523</v>
       </c>
     </row>
     <row r="15">
@@ -996,22 +996,22 @@
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>1.550059208095609</v>
+        <v>1.264379069092865</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2073927214097223</v>
+        <v>0.426979971085174</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.690100144455424</v>
+        <v>2.878528206782966</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.9653330675590798</v>
+        <v>1.101972031348937</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6488912680948586</v>
+        <v>0.6084799345012334</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>2.851077827359446</v>
+        <v>2.849875601603481</v>
       </c>
     </row>
     <row r="16">
@@ -1041,7 +1041,7 @@
         <v>1.117272297592285</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>2.51286648961215</v>
+        <v>2.512866489612149</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.8001693081039998</v>
@@ -1050,7 +1050,7 @@
         <v>0.694038784584105</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>1.884198910977503</v>
+        <v>1.884198910977502</v>
       </c>
     </row>
     <row r="17">
@@ -1067,25 +1067,25 @@
         <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5179290139608315</v>
+        <v>0.4042960011954983</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.5544172929957929</v>
+        <v>-0.8098906290752661</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.5317874956241377</v>
+        <v>-0.4176309012358409</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.6936428905048699</v>
+        <v>0.8813829442475694</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.1203490560265394</v>
+        <v>-0.1147089851797943</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.1966316050049976</v>
+        <v>-0.1088889062270063</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.7903301132289156</v>
+        <v>0.9591205998369318</v>
       </c>
     </row>
     <row r="18">
@@ -1096,31 +1096,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.150138685284273</v>
+        <v>2.146203602259463</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.236198537764612</v>
+        <v>1.315452397233668</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.429874662054662</v>
+        <v>2.397972409999018</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.114703766170634</v>
+        <v>2.799224523388562</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.908829192490827</v>
+        <v>3.09151758679597</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.15222610327816</v>
+        <v>4.315823795855295</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.971618766081177</v>
+        <v>1.84730443394877</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.687346939334075</v>
+        <v>1.727054435195306</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.761405884739798</v>
+        <v>3.00444466624946</v>
       </c>
     </row>
     <row r="19">
@@ -1161,7 +1161,7 @@
         <v>1.560092562576566</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>4.235389682425809</v>
+        <v>4.235389682425807</v>
       </c>
     </row>
     <row r="20">
@@ -1175,22 +1175,22 @@
       <c r="D20" s="6" t="inlineStr"/>
       <c r="E20" s="6" t="inlineStr"/>
       <c r="F20" s="6" t="n">
-        <v>-0.6271733948577551</v>
+        <v>-0.7447968816053486</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5439999926047718</v>
+        <v>-0.6199318610356979</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05900732548142722</v>
+        <v>0.2187706821479277</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4544085039388997</v>
+        <v>-0.3672902158811676</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3988331331544164</v>
+        <v>-0.4950067050384044</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.5809144881519489</v>
+        <v>0.6837365901459574</v>
       </c>
     </row>
     <row r="21">
@@ -1203,19 +1203,21 @@
       <c r="C21" s="6" t="inlineStr"/>
       <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="6" t="inlineStr"/>
-      <c r="F21" s="6" t="inlineStr"/>
+      <c r="F21" s="6" t="n">
+        <v>11.83960319471486</v>
+      </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="n">
-        <v>13.82563962718693</v>
+        <v>14.77105435995132</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>15.85833036644028</v>
+        <v>11.56964958415877</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>12.00246249990665</v>
+        <v>14.38086271094468</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>18.11219359171656</v>
+        <v>18.18108375567262</v>
       </c>
     </row>
     <row r="22">
@@ -1245,7 +1247,7 @@
         <v>2.585447716274103</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>3.188210180283517</v>
+        <v>3.188210180283518</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>1.324900186743649</v>
@@ -1254,7 +1256,7 @@
         <v>1.718068459907996</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>2.187291063142853</v>
+        <v>2.187291063142851</v>
       </c>
     </row>
     <row r="23">
@@ -1265,31 +1267,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.507459650397122</v>
+        <v>-1.392426644042506</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.2515190933725807</v>
+        <v>-0.05151674657909922</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01490816066989754</v>
+        <v>0.02823852106244792</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.7723462066560388</v>
+        <v>0.6807347135924982</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.4754143296040071</v>
+        <v>0.5181556632860254</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>1.241089723766251</v>
+        <v>1.315358304068019</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.3190128242337725</v>
+        <v>0.1861337912794654</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.6481544042754266</v>
+        <v>0.497571476241143</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.011370165175813</v>
+        <v>1.077091425568512</v>
       </c>
     </row>
     <row r="24">
@@ -1303,28 +1305,28 @@
         <v>0</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.161910991037461</v>
+        <v>2.157979299002108</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.241347136564854</v>
+        <v>2.32203486662415</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.384290549995367</v>
+        <v>5.395035990754609</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>5.062166862615271</v>
+        <v>5.059977223313757</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>5.30204584064833</v>
+        <v>5.532003068844555</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.556784866784722</v>
+        <v>2.613153101991389</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.231106406636964</v>
+        <v>3.067048191050801</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.425505191569837</v>
+        <v>3.398675792783728</v>
       </c>
     </row>
     <row r="25">
@@ -1350,7 +1352,7 @@
         <v>2.103961370866657</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>2.594471750210858</v>
+        <v>2.594471750210859</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>1.755912224862041</v>
@@ -1359,7 +1361,7 @@
         <v>2.276984668042813</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>2.898853178173148</v>
+        <v>2.898853178173147</v>
       </c>
     </row>
     <row r="26">
@@ -1373,22 +1375,22 @@
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="n">
-        <v>0.1074200060526371</v>
+        <v>0.03879218710770788</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.07205705203152372</v>
+        <v>0.003079741323305868</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2821069808034097</v>
+        <v>0.2859167508097693</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1428600025015747</v>
+        <v>-0.0603532759111706</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.3758186944696029</v>
+        <v>0.1945211626262957</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.6056842452634476</v>
+        <v>0.5553203229321164</v>
       </c>
     </row>
     <row r="27">
@@ -1402,22 +1404,22 @@
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>9.6586257067699</v>
+        <v>10.81812550796469</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>9.900541123024079</v>
+        <v>10.3852189590994</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>11.46618474510812</v>
+        <v>10.44359056727846</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>7.540845532250459</v>
+        <v>6.34996412104557</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>8.053751300387272</v>
+        <v>8.175410707223266</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>9.395968741480134</v>
+        <v>8.558050069319274</v>
       </c>
     </row>
     <row r="28">
@@ -1447,7 +1449,7 @@
         <v>-0.2572607650651818</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>0.2134176733329784</v>
+        <v>0.2134176733329777</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>1.743066984646888</v>
@@ -1456,7 +1458,7 @@
         <v>-0.09110369915725572</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.2136548090575081</v>
+        <v>0.2136548090575084</v>
       </c>
     </row>
     <row r="29">
@@ -1467,31 +1469,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.3040300051085053</v>
+        <v>-0.2968058327205063</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.829769447330019</v>
+        <v>-0.8042012918520535</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.057235851744611</v>
+        <v>-1.215308410236391</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.613119238249156</v>
+        <v>-1.637504678902435</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-3.74329558258002</v>
+        <v>-3.58135566619989</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-3.229381291997173</v>
+        <v>-3.469992512072314</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.497878122684145</v>
+        <v>-0.4477406971712399</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.909017044160453</v>
+        <v>-1.796979648489198</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-1.623384750458873</v>
+        <v>-1.453739644768406</v>
       </c>
     </row>
     <row r="30">
@@ -1502,31 +1504,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.882148505249383</v>
+        <v>3.546838024717173</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.394051905195359</v>
+        <v>1.463518910717541</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.041919423686748</v>
+        <v>1.026315630802006</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6.608273919216255</v>
+        <v>6.739936170671893</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>2.859946557192791</v>
+        <v>2.80893009104511</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.647718349113239</v>
+        <v>2.69396786786127</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>4.093971643860099</v>
+        <v>4.084177180883728</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.783971474580694</v>
+        <v>1.764237721025276</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1.588674860895227</v>
+        <v>1.600782792388663</v>
       </c>
     </row>
     <row r="31">
@@ -1552,7 +1554,7 @@
         <v>-0.08388385026013696</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.06958813229135233</v>
+        <v>0.06958813229135211</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.9979347257725778</v>
@@ -1561,7 +1563,7 @@
         <v>-0.05215837706534335</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.1223209177643794</v>
+        <v>0.1223209177643796</v>
       </c>
     </row>
     <row r="32">
@@ -1575,22 +1577,22 @@
       <c r="D32" s="6" t="inlineStr"/>
       <c r="E32" s="6" t="inlineStr"/>
       <c r="F32" s="6" t="n">
-        <v>-0.4151742347307326</v>
+        <v>-0.4793727273800336</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.7578485856233811</v>
+        <v>-0.7696185197248784</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.5881352213779163</v>
+        <v>-0.6371999133021515</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.2559266260843345</v>
+        <v>-0.2698202047805756</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.7426403903658625</v>
+        <v>-0.7174614604548613</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.5640977938394371</v>
+        <v>-0.5191813580478077</v>
       </c>
     </row>
     <row r="33">
@@ -1604,22 +1606,22 @@
       <c r="D33" s="6" t="inlineStr"/>
       <c r="E33" s="6" t="inlineStr"/>
       <c r="F33" s="6" t="n">
-        <v>4.640987545405914</v>
+        <v>4.083707586214843</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>2.650401983988586</v>
+        <v>2.619616846330824</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.998253731812737</v>
+        <v>2.250337995249135</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>4.376182215484339</v>
+        <v>4.21542779499784</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>2.677390898262073</v>
+        <v>1.960749908487729</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.876463903929398</v>
+        <v>1.885385892985681</v>
       </c>
     </row>
     <row r="34">
@@ -1672,28 +1674,28 @@
         <v>0</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>0.2987018554786789</v>
+        <v>0.2977035909337223</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>2.132141801095451</v>
+        <v>2.19100502267604</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-1.167670048180734</v>
+        <v>-1.483257664170382</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-1.094616030394352</v>
+        <v>-1.084786687925753</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>1.999833244818119</v>
+        <v>2.192552712530908</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-0.3928004256535509</v>
+        <v>-0.4035319571706216</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-0.1649563363134897</v>
+        <v>-0.3337867136220977</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>2.477609322931585</v>
+        <v>2.580843555829138</v>
       </c>
     </row>
     <row r="36">
@@ -1704,31 +1706,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>2.208404480871085</v>
+        <v>2.527556946131971</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>2.887441323479671</v>
+        <v>3.296805276479955</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>5.582938965923673</v>
+        <v>5.816715176870717</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2.773758904340407</v>
+        <v>2.802796170176879</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>2.817034842945886</v>
+        <v>3.101017389577386</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>6.925095302961994</v>
+        <v>6.919724910984387</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>1.778074264964816</v>
+        <v>1.7897866286091</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>2.186793998439706</v>
+        <v>1.973129150428299</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>5.36523490229746</v>
+        <v>5.359820145387662</v>
       </c>
     </row>
     <row r="37">
@@ -1782,21 +1784,17 @@
       <c r="C38" s="6" t="inlineStr"/>
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="inlineStr"/>
-      <c r="F38" s="6" t="n">
-        <v>-0.7635431720857787</v>
-      </c>
+      <c r="F38" s="6" t="inlineStr"/>
       <c r="G38" s="6" t="inlineStr"/>
       <c r="H38" s="6" t="n">
-        <v>0.550706659871824</v>
+        <v>0.6469736869870307</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.6049562350795666</v>
-      </c>
-      <c r="J38" s="6" t="n">
-        <v>-0.5077204881436603</v>
-      </c>
+        <v>-0.6288726747382712</v>
+      </c>
+      <c r="J38" s="6" t="inlineStr"/>
       <c r="K38" s="6" t="n">
-        <v>1.647982652174371</v>
+        <v>1.554615079747557</v>
       </c>
     </row>
     <row r="39">
@@ -1812,14 +1810,14 @@
       <c r="F39" s="6" t="inlineStr"/>
       <c r="G39" s="6" t="inlineStr"/>
       <c r="H39" s="6" t="n">
-        <v>17.03160121854463</v>
+        <v>18.42142151454482</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>10.39175659439722</v>
+        <v>7.705662244742415</v>
       </c>
       <c r="J39" s="6" t="inlineStr"/>
       <c r="K39" s="6" t="n">
-        <v>27.09147626037814</v>
+        <v>26.52679644815871</v>
       </c>
     </row>
     <row r="40">
@@ -1849,7 +1847,7 @@
         <v>0.5734289617858033</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>6.613345343322042</v>
+        <v>6.613345343322044</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>0.105196956124157</v>
@@ -1869,31 +1867,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-1.049733775036192</v>
+        <v>-1.123309194612091</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-0.9121022921806674</v>
+        <v>-1.047066354397428</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>0.364710015891352</v>
+        <v>0.4509673761271192</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-1.375858780144767</v>
+        <v>-1.435606662113106</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-1.252033874233409</v>
+        <v>-1.210381944205556</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>4.404771946622633</v>
+        <v>4.472504549707361</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-0.9258142279112501</v>
+        <v>-0.8879845057909331</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-0.869232788032967</v>
+        <v>-0.8112068264157258</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>2.884069974351661</v>
+        <v>2.826695917641631</v>
       </c>
     </row>
     <row r="42">
@@ -1904,31 +1902,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.4389909254601624</v>
+        <v>0.4490194307888299</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0.5401343267796688</v>
+        <v>0.4190763635560374</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2.717116223714934</v>
+        <v>2.853517614092332</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>2.36681270894521</v>
+        <v>2.317534618275043</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>2.391496275206339</v>
+        <v>2.484210928684066</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>8.785585758079741</v>
+        <v>9.097075672124678</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>1.077354493809437</v>
+        <v>1.20168105731949</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>1.328311796281822</v>
+        <v>1.286897925962903</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>5.470658870213431</v>
+        <v>5.601531992358212</v>
       </c>
     </row>
     <row r="43">
@@ -1954,7 +1952,7 @@
         <v>0.2303669859252575</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>2.656818080620452</v>
+        <v>2.656818080620453</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.06766799747976632</v>
@@ -1976,25 +1974,25 @@
       <c r="C44" s="6" t="inlineStr"/>
       <c r="D44" s="6" t="inlineStr"/>
       <c r="E44" s="6" t="n">
-        <v>0.001393527989452103</v>
+        <v>0.1814022325139214</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.4402746080504747</v>
+        <v>-0.4386473288763873</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.3957789568144749</v>
+        <v>-0.3610534603595723</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>1.110085792798046</v>
+        <v>1.199001584558441</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.4544273602547322</v>
+        <v>-0.4507372489886175</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.3982360368356158</v>
+        <v>-0.3969143083219758</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>1.293179721135913</v>
+        <v>1.245873260985844</v>
       </c>
     </row>
     <row r="45">
@@ -2007,25 +2005,25 @@
       <c r="C45" s="6" t="inlineStr"/>
       <c r="D45" s="6" t="inlineStr"/>
       <c r="E45" s="6" t="n">
-        <v>11.89617818876378</v>
+        <v>14.8754949441939</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.630935700112719</v>
+        <v>1.450625743529424</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>1.522304940072982</v>
+        <v>1.573819535446308</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>5.74238893639943</v>
+        <v>5.931064397228159</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>1.024897391511112</v>
+        <v>1.115606009368576</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>1.204511331547002</v>
+        <v>1.267555369134313</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>5.057705188147994</v>
+        <v>5.064674440952014</v>
       </c>
     </row>
     <row r="46">
@@ -2055,7 +2053,7 @@
         <v>0.9269195978254943</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>-0.2221201328663056</v>
+        <v>-0.2221201328663054</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>0.180410269770746</v>
@@ -2075,31 +2073,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-0.8386081558277575</v>
+        <v>-0.9161846444925936</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-1.248753241297478</v>
+        <v>-1.27013707076302</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-1.120854215216887</v>
+        <v>-1.096309378459782</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-1.039086518371613</v>
+        <v>-1.039015027429913</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-0.5594172757191035</v>
+        <v>-0.5612407528723949</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-1.412220806645323</v>
+        <v>-1.464302142984056</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-0.6466131400857122</v>
+        <v>-0.5745681602199281</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-0.4794599253443152</v>
+        <v>-0.6429690625792769</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-1.022333487431089</v>
+        <v>-1.000828610318129</v>
       </c>
     </row>
     <row r="48">
@@ -2110,31 +2108,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.7207237784127931</v>
+        <v>0.6844178507682774</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0.009145421148567534</v>
+        <v>0.006126615924060328</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>0.3173410330463278</v>
+        <v>0.3442462199620592</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>1.791789807947067</v>
+        <v>1.683666336650933</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>2.353854978835207</v>
+        <v>2.424607646658294</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>0.8900779464781067</v>
+        <v>0.8490304941432026</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>0.9128475521005452</v>
+        <v>1.119464252437854</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>1.060306962155809</v>
+        <v>1.064291672856836</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>0.4364013123766692</v>
+        <v>0.4113770861162828</v>
       </c>
     </row>
     <row r="49">
@@ -2180,29 +2178,29 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.8674734641411025</v>
+        <v>-0.8705578831105488</v>
       </c>
       <c r="D50" s="6" t="inlineStr"/>
       <c r="E50" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.4374794289088161</v>
+        <v>-0.4368575954536743</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.2764147037988802</v>
+        <v>-0.3113364048068224</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.6201428894017278</v>
+        <v>-0.633058014758664</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.4181964238400541</v>
+        <v>-0.4286261698067325</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.3542055170309444</v>
+        <v>-0.4122148282876301</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.637725150614134</v>
+        <v>-0.6423088658847743</v>
       </c>
     </row>
     <row r="51">
@@ -2213,29 +2211,29 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>3.958542413063868</v>
+        <v>4.016482655053115</v>
       </c>
       <c r="D51" s="6" t="inlineStr"/>
       <c r="E51" s="6" t="n">
-        <v>1.87762695883674</v>
+        <v>2.875675222822317</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>1.720109799627943</v>
+        <v>1.58324408096788</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>2.453716480778147</v>
+        <v>2.230920668871685</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>1.011775015213073</v>
+        <v>0.8874641590510898</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>1.146644237040744</v>
+        <v>1.456928409739348</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>1.348007731560239</v>
+        <v>1.398127114090954</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.6075384720260548</v>
+        <v>0.6031948783023653</v>
       </c>
     </row>
     <row r="52">
@@ -2256,7 +2254,7 @@
         <v>0.1511394173982236</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>0.8289995249279265</v>
+        <v>0.8289995249279262</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>1.010176432353802</v>
@@ -2265,7 +2263,7 @@
         <v>0.7442218142061908</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>2.811986732701426</v>
+        <v>2.811986732701425</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>0.5336680819936768</v>
@@ -2285,31 +2283,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-0.2680191635219031</v>
+        <v>-0.2766302673214799</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-0.1861786773760587</v>
+        <v>-0.1786711764079237</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>0.4229999264653684</v>
+        <v>0.421680321871848</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>0.3383415124082605</v>
+        <v>0.2705486411650542</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>0.06868558402273275</v>
+        <v>0.09815625736746265</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>2.08274672586813</v>
+        <v>2.093435078988792</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>0.1435809166269313</v>
+        <v>0.1310096933570468</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>0.1230724511456161</v>
+        <v>0.03245629229422509</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>1.429839731734333</v>
+        <v>1.448935537171445</v>
       </c>
     </row>
     <row r="54">
@@ -2320,31 +2318,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.3623965671021127</v>
+        <v>0.3569060975038912</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>0.5175779510002919</v>
+        <v>0.5050692236123492</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>1.268671410787643</v>
+        <v>1.242051714840257</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>1.744088677849256</v>
+        <v>1.744057325515486</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>1.51660414712332</v>
+        <v>1.459245377010608</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>3.516851933432247</v>
+        <v>3.52941475247605</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>0.9715440216505077</v>
+        <v>0.9081853130350722</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>0.85396690004035</v>
+        <v>0.8330786813375806</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>2.315183235171971</v>
+        <v>2.31441371049262</v>
       </c>
     </row>
     <row r="55">
@@ -2361,7 +2359,7 @@
         <v>0.3673427432412127</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>2.014874510401983</v>
+        <v>2.014874510401982</v>
       </c>
       <c r="F55" s="6" t="n">
         <v>0.5918869500978229</v>
@@ -2390,31 +2388,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.5005233107888969</v>
+        <v>-0.5147661041998639</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.3575830052326005</v>
+        <v>-0.3382888524860447</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.6459488559028271</v>
+        <v>0.6039137735417934</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.142094202022002</v>
+        <v>0.1272291127316845</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.01969557145428062</v>
+        <v>0.04700789968255466</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>1.012343045420801</v>
+        <v>0.9593412715027771</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.1147210919343567</v>
+        <v>0.09835632035194544</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.07407820693036075</v>
+        <v>0.0383878981856306</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>1.083846972594511</v>
+        <v>1.109774677821246</v>
       </c>
     </row>
     <row r="57">
@@ -2425,31 +2423,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>1.652323792022388</v>
+        <v>1.4825477351349</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>2.084357785485662</v>
+        <v>1.987790669463217</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>5.268209251960021</v>
+        <v>4.747850919504979</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>1.191379635293689</v>
+        <v>1.309316349948831</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>1.102684135851943</v>
+        <v>1.09836479232985</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>2.683099478561197</v>
+        <v>2.546221180307732</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>1.084171869410738</v>
+        <v>1.028199237917777</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.9469508958901515</v>
+        <v>0.955898224831401</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>2.67176620809742</v>
+        <v>2.644630102505694</v>
       </c>
     </row>
     <row r="58">
